--- a/MyToDo/Data/Note/Note.xlsx
+++ b/MyToDo/Data/Note/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13830" windowHeight="6570"/>
+    <workbookView windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -46,31 +46,13 @@
     <t xml:space="preserve">Content</t>
   </si>
   <si>
-    <t xml:space="preserve"> hello world</t>
+    <t xml:space="preserve">2024-01-06</t>
   </si>
   <si>
-    <t xml:space="preserve">hello world</t>
+    <t xml:space="preserve">大哥哥吧</t>
   </si>
   <si>
-    <t xml:space="preserve">2003/23/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello wpf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello c#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello GoLang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dadjajkodad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ndhajndkoa</t>
+    <t xml:space="preserve">大大</t>
   </si>
 </sst>
 </file>
@@ -686,11 +668,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,16 +983,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A6:F6"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="10.375"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1032,89 +1008,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>37695</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>37705</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
